--- a/Javascript/JS2/protractor/Protractor - Andrea Ángel.xlsx
+++ b/Javascript/JS2/protractor/Protractor - Andrea Ángel.xlsx
@@ -52,14 +52,14 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>URL:</t>
+      <t>URL:"</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>"C:\\Users\\SUP05\\Documents\\GitHub\\DWEC\\Javascript\\JS2\\index.html"</t>
+      <t>file:///B:/Usuarios/ADA%20ITS%202021-2023/SEGUNDO%20CURSO/DWEC/Javascript/JS2/index.html"</t>
     </r>
   </si>
   <si>
@@ -88,7 +88,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>"C:\\Users\\SUP05\\Documents\\GitHub\\DWEC\\Javascript\\JS2\\index.html"</t>
+      <t>"file:///B:/Usuarios/ADA%20ITS%202021-2023/SEGUNDO%20CURSO/DWEC/Javascript/JS2/index.html"</t>
     </r>
   </si>
   <si>
@@ -114,7 +114,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>"C:\\Users\\SUP05\\Documents\\GitHub\\DWEC\\Javascript\\JS2\\index.html"</t>
+      <t>"file:///B:/Usuarios/ADA%20ITS%202021-2023/SEGUNDO%20CURSO/DWEC/Javascript/JS2/index.html"</t>
     </r>
   </si>
   <si>
@@ -136,14 +136,14 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>URL:</t>
+      <t>URL</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>"C:\\Users\\SUP05\\Documents\\GitHub\\DWEC\\Javascript\\JS2\\index.html"</t>
+      <t>:"file:///B:/Usuarios/ADA%20ITS%202021-2023/SEGUNDO%20CURSO/DWEC/Javascript/JS2/index.html"</t>
     </r>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <col customWidth="1" min="3" max="3" width="30.75"/>
     <col customWidth="1" min="5" max="5" width="38.63"/>
     <col customWidth="1" min="6" max="6" width="43.38"/>
-    <col customWidth="1" min="7" max="7" width="61.38"/>
+    <col customWidth="1" min="7" max="7" width="85.13"/>
   </cols>
   <sheetData>
     <row r="1">
